--- a/summary/sppb-psat-ongoing-2022-1.xlsx
+++ b/summary/sppb-psat-ongoing-2022-1.xlsx
@@ -64,10 +64,10 @@
     <t>AB111121</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat Jan 01 2022 10:36:18 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Sat Jan 01 2022 10:36:18 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>74</t>
@@ -82,7 +82,7 @@
     <t>SERT16</t>
   </si>
   <si>
-    <t>Tue Jun 13 2023 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+    <t>Tue Jun 13 2023 00:00:00 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>76</t>
@@ -91,7 +91,7 @@
     <t>penambahan/76/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 02 2022 09:17:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 02 2022 09:17:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>80</t>
@@ -106,10 +106,10 @@
     <t>SERT123A</t>
   </si>
   <si>
-    <t>Thu Jan 13 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jan 03 2022 23:46:06 GMT+0800 (Taipei Standard Time)</t>
+    <t>Thu Jan 13 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Mon Jan 03 2022 23:46:06 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>81</t>
@@ -130,7 +130,7 @@
     <t>perpanjangan/84/sppb</t>
   </si>
   <si>
-    <t>Tue Jan 04 2022 21:13:06 GMT+0800 (Taipei Standard Time)</t>
+    <t>Tue Jan 04 2022 21:13:06 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>85</t>
@@ -151,7 +151,7 @@
     <t>perpanjangan/86/sppb</t>
   </si>
   <si>
-    <t>Tue Jan 04 2022 21:31:05 GMT+0800 (Taipei Standard Time)</t>
+    <t>Tue Jan 04 2022 21:31:05 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>87</t>
@@ -160,7 +160,7 @@
     <t>perpanjangan/87/sppb</t>
   </si>
   <si>
-    <t>Tue Jan 04 2022 21:33:10 GMT+0800 (Taipei Standard Time)</t>
+    <t>Tue Jan 04 2022 21:33:10 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>77</t>
@@ -172,10 +172,10 @@
     <t>Perbaikan Permohonan Baru</t>
   </si>
   <si>
-    <t>Sun Jan 02 2022 09:19:19 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Jan 04 2022 21:58:01 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 02 2022 09:19:19 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Tue Jan 04 2022 21:58:01 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>79</t>
@@ -190,7 +190,7 @@
     <t>PERMOHONAN</t>
   </si>
   <si>
-    <t>Wed Jan 05 2022 10:11:27 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 05 2022 10:11:27 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>88</t>
@@ -205,10 +205,10 @@
     <t>3123213213</t>
   </si>
   <si>
-    <t>Wed Dec 08 2021 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Jan 05 2022 11:34:36 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Dec 08 2021 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Wed Jan 05 2022 11:34:36 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>82</t>
@@ -223,10 +223,10 @@
     <t>dep@gmail.com,,</t>
   </si>
   <si>
-    <t>Thu Jan 20 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Wed Jan 05 2022 11:58:42 GMT+0800 (Taipei Standard Time)</t>
+    <t>Thu Jan 20 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Wed Jan 05 2022 11:58:42 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>92</t>
@@ -235,7 +235,7 @@
     <t>permohonan/92/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:49:15 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:49:15 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>93</t>
@@ -244,7 +244,7 @@
     <t>permohonan/93/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:51:28 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:51:28 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>94</t>
@@ -253,7 +253,7 @@
     <t>permohonan/94/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:51:50 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:51:50 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>95</t>
@@ -262,7 +262,7 @@
     <t>permohonan/95/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:52:16 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:52:16 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>96</t>
@@ -271,7 +271,7 @@
     <t>permohonan/96/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:52:35 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:52:35 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>97</t>
@@ -280,7 +280,7 @@
     <t>permohonan/97/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:55:07 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:55:07 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>98</t>
@@ -289,7 +289,7 @@
     <t>permohonan/98/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:55:30 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:55:30 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>99</t>
@@ -298,7 +298,7 @@
     <t>permohonan/99/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:56:51 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:56:51 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>100</t>
@@ -307,7 +307,7 @@
     <t>permohonan/100/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:58:41 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:58:41 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>101</t>
@@ -316,7 +316,7 @@
     <t>permohonan/101/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:59:16 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:59:16 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>102</t>
@@ -325,7 +325,7 @@
     <t>permohonan/102/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 10:59:43 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 10:59:43 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>103</t>
@@ -334,7 +334,7 @@
     <t>permohonan/103/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:01:27 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:01:27 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>105</t>
@@ -343,7 +343,7 @@
     <t>permohonan/105/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:03:17 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:03:17 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>104</t>
@@ -358,7 +358,7 @@
     <t>permohonan/106/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:05:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:05:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>107</t>
@@ -367,7 +367,7 @@
     <t>permohonan/107/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:06:07 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:06:07 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>108</t>
@@ -376,7 +376,7 @@
     <t>permohonan/108/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:06:26 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:06:26 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>109</t>
@@ -385,7 +385,7 @@
     <t>permohonan/109/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:07:27 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:07:27 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>111</t>
@@ -394,7 +394,7 @@
     <t>permohonan/111/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:09:36 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:09:36 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>110</t>
@@ -409,7 +409,7 @@
     <t>permohonan/112/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:10:51 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:10:51 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>113</t>
@@ -424,7 +424,7 @@
     <t>permohonan/114/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:12:51 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:12:51 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>115</t>
@@ -433,7 +433,7 @@
     <t>permohonan/115/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:13:34 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:13:34 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>116</t>
@@ -442,7 +442,7 @@
     <t>permohonan/116/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:13:52 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:13:52 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>117</t>
@@ -451,7 +451,7 @@
     <t>permohonan/117/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:14:34 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:14:34 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>118</t>
@@ -460,7 +460,7 @@
     <t>permohonan/118/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:16:37 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:16:37 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>119</t>
@@ -469,7 +469,7 @@
     <t>permohonan/119/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:17:00 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:17:00 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>120</t>
@@ -478,7 +478,7 @@
     <t>permohonan/120/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:17:14 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:17:14 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>121</t>
@@ -487,7 +487,7 @@
     <t>permohonan/121/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:19:21 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:19:21 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>122</t>
@@ -496,7 +496,7 @@
     <t>permohonan/122/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:19:44 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:19:44 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>123</t>
@@ -505,7 +505,7 @@
     <t>permohonan/123/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:20:07 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:20:07 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>124</t>
@@ -514,7 +514,7 @@
     <t>permohonan/124/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:20:46 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:20:46 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>125</t>
@@ -523,7 +523,7 @@
     <t>permohonan/125/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:21:05 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:21:05 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>126</t>
@@ -532,7 +532,7 @@
     <t>permohonan/126/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:21:36 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:21:36 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>127</t>
@@ -541,7 +541,7 @@
     <t>permohonan/127/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:22:09 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:22:09 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>128</t>
@@ -550,7 +550,7 @@
     <t>permohonan/128/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:22:35 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:22:35 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>129</t>
@@ -559,7 +559,7 @@
     <t>permohonan/129/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:22:59 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:22:59 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>130</t>
@@ -568,7 +568,7 @@
     <t>permohonan/130/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:23:14 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:23:14 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>131</t>
@@ -577,7 +577,7 @@
     <t>permohonan/131/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:24:11 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:24:11 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>132</t>
@@ -586,7 +586,7 @@
     <t>permohonan/132/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:25:54 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:25:54 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>133</t>
@@ -595,7 +595,7 @@
     <t>permohonan/133/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:26:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:26:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>134</t>
@@ -604,7 +604,7 @@
     <t>permohonan/134/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:27:39 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:27:39 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>135</t>
@@ -613,7 +613,7 @@
     <t>permohonan/135/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:28:29 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:28:29 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>136</t>
@@ -622,7 +622,7 @@
     <t>permohonan/136/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:29:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:29:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>137</t>
@@ -631,7 +631,7 @@
     <t>permohonan/137/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:30:37 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:30:37 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>138</t>
@@ -640,7 +640,7 @@
     <t>permohonan/138/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:30:50 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:30:50 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>139</t>
@@ -649,7 +649,7 @@
     <t>permohonan/139/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:33:09 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:33:09 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>140</t>
@@ -658,7 +658,7 @@
     <t>permohonan/140/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:33:45 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:33:45 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>141</t>
@@ -667,7 +667,7 @@
     <t>permohonan/141/sppb</t>
   </si>
   <si>
-    <t>Fri Jan 07 2022 11:34:27 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Jan 07 2022 11:34:27 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>142</t>
@@ -676,7 +676,7 @@
     <t>permohonan/142/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:15:23 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:15:23 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>143</t>
@@ -685,7 +685,7 @@
     <t>permohonan/143/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:19:49 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:19:49 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>144</t>
@@ -694,7 +694,7 @@
     <t>permohonan/144/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:22:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:22:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>145</t>
@@ -703,7 +703,7 @@
     <t>permohonan/145/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:22:43 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:22:43 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>155</t>
@@ -712,7 +712,7 @@
     <t>permohonan/155/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:28:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:28:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>156</t>
@@ -721,7 +721,7 @@
     <t>penambahan/156/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:52:58 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:52:58 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>157</t>
@@ -730,7 +730,7 @@
     <t>penambahan/157/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:53:33 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:53:33 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>158</t>
@@ -739,7 +739,7 @@
     <t>penambahan/158/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:55:28 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:55:28 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>159</t>
@@ -748,7 +748,7 @@
     <t>penambahan/159/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:56:01 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:56:01 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>160</t>
@@ -757,7 +757,7 @@
     <t>penambahan/160/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:56:12 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:56:12 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>161</t>
@@ -766,7 +766,7 @@
     <t>penambahan/161/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:56:35 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:56:35 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>162</t>
@@ -775,7 +775,7 @@
     <t>penambahan/162/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:57:30 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:57:30 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>148</t>
@@ -784,10 +784,10 @@
     <t>permohonan/148/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 08:24:17 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat Jan 08 2022 21:07:03 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 08:24:17 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Sat Jan 08 2022 21:07:03 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>90</t>
@@ -796,7 +796,7 @@
     <t>pengalihan/90/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 21:13:10 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 21:13:10 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>166</t>
@@ -805,10 +805,10 @@
     <t>permohonan/166/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 09:15:54 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat Jan 08 2022 21:29:15 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 09:15:54 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Sat Jan 08 2022 21:29:15 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>91</t>
@@ -817,7 +817,7 @@
     <t>pengalihan/91/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 21:48:54 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 21:48:54 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>167</t>
@@ -826,10 +826,10 @@
     <t>pengalihan/167/sppb</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 21:32:25 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Sat Jan 08 2022 23:41:51 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 21:32:25 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Sat Jan 08 2022 23:41:51 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>168</t>
@@ -838,7 +838,7 @@
     <t>permohonan/168/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:00:50 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:00:50 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>169</t>
@@ -847,7 +847,7 @@
     <t>permohonan/169/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:01:02 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:01:02 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>170</t>
@@ -856,7 +856,7 @@
     <t>permohonan/170/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:01:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:01:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>171</t>
@@ -865,7 +865,7 @@
     <t>permohonan/171/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:02:18 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:02:18 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>172</t>
@@ -874,7 +874,7 @@
     <t>permohonan/172/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:02:40 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:02:40 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>173</t>
@@ -883,7 +883,7 @@
     <t>permohonan/173/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:12:21 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:12:21 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>174</t>
@@ -892,7 +892,7 @@
     <t>permohonan/174/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:14:31 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:14:31 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>175</t>
@@ -901,7 +901,7 @@
     <t>permohonan/175/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:14:57 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:14:57 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>176</t>
@@ -910,7 +910,7 @@
     <t>permohonan/176/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:18:54 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:18:54 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>177</t>
@@ -922,7 +922,7 @@
     <t>20</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:49:10 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:49:10 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>179</t>
@@ -934,7 +934,7 @@
     <t>3</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:50:48 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:50:48 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>178</t>
@@ -952,7 +952,7 @@
     <t>perpanjangan/180/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:53:38 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:53:38 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>181</t>
@@ -961,7 +961,7 @@
     <t>perpanjangan/181/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:54:32 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:54:32 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>182</t>
@@ -982,7 +982,7 @@
     <t>perpanjangan/184/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:55:50 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:55:50 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>185</t>
@@ -991,7 +991,7 @@
     <t>perpanjangan/185/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:56:16 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:56:16 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>186</t>
@@ -1000,7 +1000,7 @@
     <t>perpanjangan/186/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:57:18 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:57:18 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>187</t>
@@ -1009,7 +1009,7 @@
     <t>perpanjangan/187/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 10:58:17 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 10:58:17 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>188</t>
@@ -1018,7 +1018,7 @@
     <t>penambahan/188/sppb</t>
   </si>
   <si>
-    <t>Sun Jan 09 2022 12:32:19 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 09 2022 12:32:19 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>190</t>
@@ -1027,7 +1027,7 @@
     <t>permohonan/190/sppb</t>
   </si>
   <si>
-    <t>Mon Jan 10 2022 07:32:30 GMT+0800 (Taipei Standard Time)</t>
+    <t>Mon Jan 10 2022 07:32:30 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>189</t>
@@ -1036,7 +1036,7 @@
     <t>permohonan/189/sppb</t>
   </si>
   <si>
-    <t>Mon Jan 10 2022 17:30:01 GMT+0800 (Taipei Standard Time)</t>
+    <t>Mon Jan 10 2022 17:30:01 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>191</t>
@@ -1048,10 +1048,10 @@
     <t>fdf</t>
   </si>
   <si>
-    <t>Wed Jan 26 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jan 10 2022 21:31:40 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 26 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Mon Jan 10 2022 21:31:40 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>192</t>
@@ -1063,10 +1063,10 @@
     <t>df</t>
   </si>
   <si>
-    <t>Thu Jan 06 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Mon Jan 10 2022 22:07:23 GMT+0800 (Taipei Standard Time)</t>
+    <t>Thu Jan 06 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Mon Jan 10 2022 22:07:23 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>193</t>
@@ -1075,7 +1075,7 @@
     <t>pengalihan/193/sppb</t>
   </si>
   <si>
-    <t>Mon Jan 10 2022 22:22:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Mon Jan 10 2022 22:22:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>89</t>
@@ -1090,10 +1090,10 @@
     <t>NOMOR12</t>
   </si>
   <si>
-    <t>Fri Aug 08 2025 00:00:00 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Tue Jan 11 2022 00:04:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Fri Aug 08 2025 00:00:00 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Tue Jan 11 2022 00:04:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>194</t>
@@ -1102,7 +1102,7 @@
     <t>permohonan/194/sppb</t>
   </si>
   <si>
-    <t>Tue Jan 11 2022 00:34:49 GMT+0800 (Taipei Standard Time)</t>
+    <t>Tue Jan 11 2022 00:34:49 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>202</t>
@@ -1111,7 +1111,7 @@
     <t>permohonan/202/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:53:17 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:53:17 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>203</t>
@@ -1120,7 +1120,7 @@
     <t>permohonan/203/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:54:13 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:54:13 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>204</t>
@@ -1129,7 +1129,7 @@
     <t>permohonan/204/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:54:54 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:54:54 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>205</t>
@@ -1138,7 +1138,7 @@
     <t>permohonan/205/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:55:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:55:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>206</t>
@@ -1147,7 +1147,7 @@
     <t>permohonan/206/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:55:52 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:55:52 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>207</t>
@@ -1156,7 +1156,7 @@
     <t>permohonan/207/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:56:34 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:56:34 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>208</t>
@@ -1165,7 +1165,7 @@
     <t>permohonan/208/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:57:12 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:57:12 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>209</t>
@@ -1174,7 +1174,7 @@
     <t>permohonan/209/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 08:58:39 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 08:58:39 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>211</t>
@@ -1183,7 +1183,7 @@
     <t>permohonan/211/sppb</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 09:05:33 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 09:05:33 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
     <t>212</t>
@@ -1195,10 +1195,10 @@
     <t>aden@gmail.com</t>
   </si>
   <si>
-    <t>Wed Jan 12 2022 09:15:52 GMT+0800 (Taipei Standard Time)</t>
-  </si>
-  <si>
-    <t>Thu Jan 13 2022 12:01:25 GMT+0800 (Taipei Standard Time)</t>
+    <t>Wed Jan 12 2022 09:15:52 GMT+0700 (Western Indonesia Time)</t>
+  </si>
+  <si>
+    <t>Thu Jan 13 2022 12:01:25 GMT+0700 (Western Indonesia Time)</t>
   </si>
 </sst>
 </file>
